--- a/Projcet01/src/ETC/개발일정.xlsx
+++ b/Projcet01/src/ETC/개발일정.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Class01\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Class01\Desktop\개별프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>DB 구축 및 연결</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,6 +128,10 @@
   </si>
   <si>
     <t>통합테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -771,6 +775,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -782,24 +804,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1791,7 +1795,7 @@
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1804,64 +1808,64 @@
     <row r="1" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="47" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="47" t="s">
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="47" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
     </row>
     <row r="3" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="44" t="s">
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="44" t="s">
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="44" t="s">
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
     </row>
     <row r="4" spans="1:20" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
